--- a/OBD_project-master/dataHandler/ForLDA3.xlsx
+++ b/OBD_project-master/dataHandler/ForLDA3.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA90CE-9F66-4DC3-92AE-26FD6A07A67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF93435-08D0-4502-82FF-A8D42A3552FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5472" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,556 +345,760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1552606886363</v>
       </c>
       <c r="B1" s="1">
         <v>1552606894183</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1555856823696</v>
       </c>
       <c r="B2" s="1">
         <v>1555856831783</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1555856831596</v>
       </c>
       <c r="B3" s="1">
         <v>1555856833594</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1555856839861</v>
       </c>
       <c r="B4" s="1">
         <v>1555856846336</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1555856854967</v>
       </c>
       <c r="B5" s="1">
         <v>1555856860502</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1555856863251</v>
       </c>
       <c r="B6" s="1">
         <v>1555856866021</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1555856866396</v>
       </c>
       <c r="B7" s="1">
         <v>1555856870142</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1555856870385</v>
       </c>
       <c r="B8" s="1">
         <v>1555856873103</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1555856873702</v>
       </c>
       <c r="B9" s="1">
         <v>1555856880592</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1555856889432</v>
       </c>
       <c r="B10" s="1">
         <v>1555856897492</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1555856899272</v>
       </c>
       <c r="B11" s="1">
         <v>1555856902812</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1555856903835</v>
       </c>
       <c r="B12" s="1">
         <v>1555856909533</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1555856913457</v>
       </c>
       <c r="B13" s="1">
         <v>1555856918558</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1555856921108</v>
       </c>
       <c r="B14" s="1">
         <v>1555856926996</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1555856922488</v>
       </c>
       <c r="B15" s="1">
         <v>1555856930338</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1555856930541</v>
       </c>
       <c r="B16" s="1">
         <v>1555856936271</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1555856936446</v>
       </c>
       <c r="B17" s="1">
         <v>1555856941382</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1555856945902</v>
       </c>
       <c r="B18" s="1">
         <v>1555856948860</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1555856948860</v>
       </c>
       <c r="B19" s="1">
         <v>1555856962988</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1555856968313</v>
       </c>
       <c r="B20" s="1">
         <v>1555856979354</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1555856983675</v>
       </c>
       <c r="B21" s="1">
         <v>1555856989375</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1555856989375</v>
       </c>
       <c r="B22" s="1">
         <v>1555856998203</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1555856998203</v>
       </c>
       <c r="B23" s="1">
         <v>1555857003518</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1555857003518</v>
       </c>
       <c r="B24" s="1">
         <v>1555857010620</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1555857010620</v>
       </c>
       <c r="B25" s="1">
         <v>1555857018705</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1555857031876</v>
       </c>
       <c r="B26" s="1">
         <v>1555857038167</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1555857052396</v>
       </c>
       <c r="B27" s="1">
         <v>1555857062828</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1555857060908</v>
       </c>
       <c r="B28" s="1">
         <v>1555857069533</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1555857069692</v>
       </c>
       <c r="B29" s="1">
         <v>1555857075396</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1555857075612</v>
       </c>
       <c r="B30" s="1">
         <v>1555857081508</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1555857079729</v>
       </c>
       <c r="B31" s="1">
         <v>1555857088634</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1555857088634</v>
       </c>
       <c r="B32" s="1">
         <v>1555857094327</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1555857105898</v>
       </c>
       <c r="B33" s="1">
         <v>1555857114556</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1555857112377</v>
       </c>
       <c r="B34" s="1">
         <v>1555857115344</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1555857115162</v>
       </c>
       <c r="B35" s="1">
         <v>1555857122644</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1555857146036</v>
       </c>
       <c r="B36" s="1">
         <v>1555857150940</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1555857150153</v>
       </c>
       <c r="B37" s="1">
         <v>1555857156477</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1555857150940</v>
       </c>
       <c r="B38" s="1">
         <v>1555857157841</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1555857157841</v>
       </c>
       <c r="B39" s="1">
         <v>1555857161592</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1555857160028</v>
       </c>
       <c r="B40" s="1">
         <v>1555857170672</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1555857170857</v>
       </c>
       <c r="B41" s="1">
         <v>1555857176952</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1555857177326</v>
       </c>
       <c r="B42" s="1">
         <v>1555857183402</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1555857424472</v>
       </c>
       <c r="B43" s="1">
         <v>1555857438049</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1555857438247</v>
       </c>
       <c r="B44" s="1">
         <v>1555857442971</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1555857449826</v>
       </c>
       <c r="B45" s="1">
         <v>1555857460292</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1555857462640</v>
       </c>
       <c r="B46" s="1">
         <v>1555857467981</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1555857467981</v>
       </c>
       <c r="B47" s="1">
         <v>1555857473496</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1555857503674</v>
       </c>
       <c r="B48" s="1">
         <v>1555857514852</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1555857516609</v>
       </c>
       <c r="B49" s="1">
         <v>1555857524258</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1555857524258</v>
       </c>
       <c r="B50" s="1">
         <v>1555857537460</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1555857538846</v>
       </c>
       <c r="B51" s="1">
         <v>1555857545527</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1555857545527</v>
       </c>
       <c r="B52" s="1">
         <v>1555857555163</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1555857565777</v>
       </c>
       <c r="B53" s="1">
         <v>1555857584693</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1555857572086</v>
       </c>
       <c r="B54" s="1">
         <v>1555857576431</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1555857585696</v>
       </c>
       <c r="B55" s="1">
         <v>1555857595524</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1555857596890</v>
       </c>
       <c r="B56" s="1">
         <v>1555857605142</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1555857655848</v>
       </c>
       <c r="B57" s="1">
         <v>1555857663777</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1555857674012</v>
       </c>
       <c r="B58" s="1">
         <v>1555857682628</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1555857684006</v>
       </c>
       <c r="B59" s="1">
         <v>1555857693080</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1555857698428</v>
       </c>
       <c r="B60" s="1">
         <v>1555857702150</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1555857702949</v>
       </c>
       <c r="B61" s="1">
         <v>1555857705121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1555857704908</v>
       </c>
       <c r="B62" s="1">
         <v>1555857714163</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1555857932965</v>
       </c>
       <c r="B63" s="1">
         <v>1555857943586</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1555860818069</v>
       </c>
       <c r="B64" s="1">
         <v>1555860822372</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1555860822372</v>
       </c>
       <c r="B65" s="1">
         <v>1555860830043</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1555860835553</v>
       </c>
       <c r="B66" s="1">
         <v>1555860839884</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1555860854468</v>
       </c>
       <c r="B67" s="1">
         <v>1555860863355</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1555861337155</v>
       </c>
       <c r="B68" s="1">
         <v>1555861343477</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
